--- a/analyses/uwpr-may2017/unipept-lca/243-peaks37-dno-nomods-lca.xlsx
+++ b/analyses/uwpr-may2017/unipept-lca/243-peaks37-dno-nomods-lca.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/uwpr-may2017/unipept-lca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98359351-257E-F341-BFB7-94192F9FFC8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6C5C6F-448C-1344-AA30-B5E31224688C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="4060" windowWidth="27240" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="243-peaks37-dno-nomods-lca" sheetId="1" r:id="rId1"/>
+    <sheet name="all fungi" sheetId="2" r:id="rId2"/>
+    <sheet name="all cyanos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'243-peaks37-dno-nomods-lca'!$A$1:$AH$556</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3592" uniqueCount="2614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3791" uniqueCount="2614">
   <si>
     <t>peptide</t>
   </si>
@@ -7867,7 +7880,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -8701,10 +8714,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH556"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -20597,6 +20612,661 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH556" xr:uid="{E5B2704B-BD65-034D-8985-55A5478E0086}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566BEB59-1594-9D40-9156-DAC5C673D2E4}">
+  <dimension ref="A1:AH14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J2" t="s">
+        <v>393</v>
+      </c>
+      <c r="N2" t="s">
+        <v>394</v>
+      </c>
+      <c r="S2" t="s">
+        <v>395</v>
+      </c>
+      <c r="W2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G3" t="s">
+        <v>400</v>
+      </c>
+      <c r="J3" t="s">
+        <v>401</v>
+      </c>
+      <c r="N3" t="s">
+        <v>402</v>
+      </c>
+      <c r="S3" t="s">
+        <v>403</v>
+      </c>
+      <c r="W3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H4" t="s">
+        <v>409</v>
+      </c>
+      <c r="J4" t="s">
+        <v>410</v>
+      </c>
+      <c r="N4" t="s">
+        <v>411</v>
+      </c>
+      <c r="S4" t="s">
+        <v>412</v>
+      </c>
+      <c r="W4" t="s">
+        <v>413</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G5" t="s">
+        <v>408</v>
+      </c>
+      <c r="H5" t="s">
+        <v>409</v>
+      </c>
+      <c r="J5" t="s">
+        <v>410</v>
+      </c>
+      <c r="N5" t="s">
+        <v>535</v>
+      </c>
+      <c r="S5" t="s">
+        <v>536</v>
+      </c>
+      <c r="W5" t="s">
+        <v>537</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>389</v>
+      </c>
+      <c r="E6" t="s">
+        <v>390</v>
+      </c>
+      <c r="G6" t="s">
+        <v>391</v>
+      </c>
+      <c r="H6" t="s">
+        <v>565</v>
+      </c>
+      <c r="J6" t="s">
+        <v>566</v>
+      </c>
+      <c r="K6" t="s">
+        <v>567</v>
+      </c>
+      <c r="N6" t="s">
+        <v>568</v>
+      </c>
+      <c r="S6" t="s">
+        <v>569</v>
+      </c>
+      <c r="W6" t="s">
+        <v>570</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>564</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>686</v>
+      </c>
+      <c r="B7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H7" t="s">
+        <v>409</v>
+      </c>
+      <c r="J7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K7" t="s">
+        <v>688</v>
+      </c>
+      <c r="N7" t="s">
+        <v>689</v>
+      </c>
+      <c r="O7" t="s">
+        <v>690</v>
+      </c>
+      <c r="S7" t="s">
+        <v>691</v>
+      </c>
+      <c r="W7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>687</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>693</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>694</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>822</v>
+      </c>
+      <c r="B8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>389</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>389</v>
+      </c>
+      <c r="E9" t="s">
+        <v>390</v>
+      </c>
+      <c r="G9" t="s">
+        <v>391</v>
+      </c>
+      <c r="H9" t="s">
+        <v>565</v>
+      </c>
+      <c r="J9" t="s">
+        <v>566</v>
+      </c>
+      <c r="K9" t="s">
+        <v>567</v>
+      </c>
+      <c r="N9" t="s">
+        <v>568</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="W9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" t="s">
+        <v>390</v>
+      </c>
+      <c r="G10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H10" t="s">
+        <v>565</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1664</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1665</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1666</v>
+      </c>
+      <c r="W10" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>389</v>
+      </c>
+      <c r="E11" t="s">
+        <v>390</v>
+      </c>
+      <c r="G11" t="s">
+        <v>391</v>
+      </c>
+      <c r="H11" t="s">
+        <v>565</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1849</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1850</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>389</v>
+      </c>
+      <c r="E12" t="s">
+        <v>390</v>
+      </c>
+      <c r="G12" t="s">
+        <v>408</v>
+      </c>
+      <c r="H12" t="s">
+        <v>409</v>
+      </c>
+      <c r="J12" t="s">
+        <v>410</v>
+      </c>
+      <c r="K12" t="s">
+        <v>688</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2120</v>
+      </c>
+      <c r="S12" t="s">
+        <v>2121</v>
+      </c>
+      <c r="W12" t="s">
+        <v>2122</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>2123</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2479</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2480</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>389</v>
+      </c>
+      <c r="E13" t="s">
+        <v>390</v>
+      </c>
+      <c r="G13" t="s">
+        <v>408</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2481</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2482</v>
+      </c>
+      <c r="N13" t="s">
+        <v>2483</v>
+      </c>
+      <c r="S13" t="s">
+        <v>2484</v>
+      </c>
+      <c r="W13" t="s">
+        <v>2485</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>2480</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>2562</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E14" t="s">
+        <v>390</v>
+      </c>
+      <c r="G14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" t="s">
+        <v>565</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2564</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2565</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2566</v>
+      </c>
+      <c r="S14" t="s">
+        <v>2567</v>
+      </c>
+      <c r="W14" t="s">
+        <v>2563</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E3A9C0-DA76-AD4D-8970-992C0C2739B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analyses/uwpr-may2017/unipept-lca/243-peaks37-dno-nomods-lca.xlsx
+++ b/analyses/uwpr-may2017/unipept-lca/243-peaks37-dno-nomods-lca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganduffy/Documents/git-repos/2017-etnp/analyses/uwpr-may2017/unipept-lca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6C5C6F-448C-1344-AA30-B5E31224688C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB35D6F-24DA-254B-B549-44873CAB2802}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20623,7 +20623,7 @@
   <dimension ref="A1:AH14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
